--- a/src/main/resources/docs/用户导入模板.xlsx
+++ b/src/main/resources/docs/用户导入模板.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>用户名（真实姓名）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：导入的用户默认密码为123456，请提醒用户及时修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +264,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -554,10 +561,11 @@
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="31.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.2" customHeight="1">
+    <row r="1" spans="1:5" ht="49.2" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,6 +577,9 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
